--- a/Dataset/Folds/Fold_3/Excel/101.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="161">
   <si>
     <t>Doi</t>
   </si>
@@ -529,6 +529,30 @@
   </si>
   <si>
     <t>[Philippe%Gautret%NULL%1,                           Jean-Christophe%Lagier%NULL%1,                           Philippe%Parola%NULL%0,                           Van Thuan%Hoang%NULL%1,                           Line%Meddeb%NULL%1,                           Morgane%Mailhe%NULL%1,                           Barbara%Doudier%NULL%1,                           Johan%Courjon%NULL%1,                           Valérie%Giordanengo%NULL%1,                           Vera Esteves%Vieira%NULL%1,                           Hervé%Tissot Dupont%NULL%1,                           Stéphane%Honoré%NULL%1,                           Philippe%Colson%NULL%1,                           Eric%Chabrière%NULL%1,                           Bernard%La Scola%NULL%1,                           Jean-Marc%Rolain%NULL%1,                           Philippe%Brouqui%NULL%1,                           Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                            Zhujun%Cao%NULL%1,                            Mingfeng%Han%NULL%0,                            Zhengyan%Wang%NULL%1,                            Junwen%Chen%NULL%1,                            Wenjin%Sun%NULL%1,                            Yaojie%Wu%NULL%1,                            Wei%Xiao%NULL%0,                            Shengyong%Liu%NULL%1,                            Erzhen%Chen%NULL%1,                            Wei%Chen%NULL%1,                            Xiongbiao%Wang%NULL%1,                            Jiuyong%Yang%NULL%1,                            Jun%Lin%NULL%0,                            Qingxia%Zhao%NULL%1,                            Youqin%Yan%NULL%0,                            Zhibin%Xie%NULL%1,                            Dan%Li%NULL%1,                            Yaofeng%Yang%NULL%1,                            Leshan%Liu%NULL%1,                            Jieming%Qu%NULL%0,                            Guang%Ning%NULL%1,                            Guochao%Shi%NULL%1,                            Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                            Jean-Christophe%Lagier%NULL%1,                            Philippe%Parola%NULL%0,                            Van Thuan%Hoang%NULL%1,                            Line%Meddeb%NULL%1,                            Morgane%Mailhe%NULL%1,                            Barbara%Doudier%NULL%1,                            Johan%Courjon%NULL%1,                            Valérie%Giordanengo%NULL%1,                            Vera Esteves%Vieira%NULL%1,                            Hervé%Tissot Dupont%NULL%1,                            Stéphane%Honoré%NULL%1,                            Philippe%Colson%NULL%1,                            Eric%Chabrière%NULL%1,                            Bernard%La Scola%NULL%1,                            Jean-Marc%Rolain%NULL%1,                            Philippe%Brouqui%NULL%1,                            Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%1,                             Zhujun%Cao%NULL%1,                             Mingfeng%Han%NULL%0,                             Zhengyan%Wang%NULL%1,                             Junwen%Chen%NULL%1,                             Wenjin%Sun%NULL%1,                             Yaojie%Wu%NULL%1,                             Wei%Xiao%NULL%0,                             Shengyong%Liu%NULL%1,                             Erzhen%Chen%NULL%1,                             Wei%Chen%NULL%1,                             Xiongbiao%Wang%NULL%1,                             Jiuyong%Yang%NULL%1,                             Jun%Lin%NULL%0,                             Qingxia%Zhao%NULL%1,                             Youqin%Yan%NULL%0,                             Zhibin%Xie%NULL%1,                             Dan%Li%NULL%1,                             Yaofeng%Yang%NULL%1,                             Leshan%Liu%NULL%1,                             Jieming%Qu%NULL%0,                             Guang%Ning%NULL%1,                             Guochao%Shi%NULL%1,                             Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%1,                             Jean-Christophe%Lagier%NULL%1,                             Philippe%Parola%NULL%0,                             Van Thuan%Hoang%NULL%1,                             Line%Meddeb%NULL%1,                             Morgane%Mailhe%NULL%1,                             Barbara%Doudier%NULL%1,                             Johan%Courjon%NULL%1,                             Valérie%Giordanengo%NULL%1,                             Vera Esteves%Vieira%NULL%1,                             Hervé%Tissot Dupont%NULL%1,                             Stéphane%Honoré%NULL%1,                             Philippe%Colson%NULL%1,                             Eric%Chabrière%NULL%1,                             Bernard%La Scola%NULL%1,                             Jean-Marc%Rolain%NULL%1,                             Philippe%Brouqui%NULL%1,                             Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Tang%NULL%0, Zhujun%Cao%NULL%1, Mingfeng%Han%NULL%0, Zhengyan%Wang%NULL%1, Junwen%Chen%NULL%1, Wenjin%Sun%NULL%1, Yaojie%Wu%NULL%1, Wei%Xiao%NULL%0, Shengyong%Liu%NULL%1, Erzhen%Chen%NULL%1, Wei%Chen%NULL%0, Xiongbiao%Wang%NULL%1, Jiuyong%Yang%NULL%1, Jun%Lin%NULL%0, Qingxia%Zhao%NULL%1, Youqin%Yan%NULL%0, Zhibin%Xie%NULL%1, Dan%Li%NULL%0, Yaofeng%Yang%NULL%1, Leshan%Liu%NULL%1, Jieming%Qu%NULL%0, Guang%Ning%NULL%1, Guochao%Shi%NULL%1, Qing%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Philippe%Gautret%NULL%0, Jean-Christophe%Lagier%NULL%1, Philippe%Parola%NULL%0, Van Thuan%Hoang%NULL%0, Line%Meddeb%NULL%1, Morgane%Mailhe%NULL%1, Barbara%Doudier%NULL%1, Johan%Courjon%NULL%1, Valérie%Giordanengo%NULL%1, Vera Esteves%Vieira%NULL%1, Hervé%Tissot Dupont%NULL%1, Stéphane%Honoré%NULL%1, Philippe%Colson%NULL%1, Eric%Chabrière%NULL%1, Bernard%La Scola%NULL%1, Jean-Marc%Rolain%NULL%1, Philippe%Brouqui%NULL%1, Didier%Raoult%Didier.raoult@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier B.V.</t>
   </si>
 </sst>
 </file>
@@ -858,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -870,10 +894,10 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -884,25 +908,25 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
@@ -916,25 +940,25 @@
         <v>44063.0</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
         <v>52</v>
@@ -954,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -966,10 +990,10 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
